--- a/HODANOVA/staistikaDatasetTwokinds_simacma22 (2).xlsx
+++ b/HODANOVA/staistikaDatasetTwokinds_simacma22 (2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\SchoolStuff\HODANOVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E8D6F2-8E5A-43A0-BAA8-0B117AB70B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E83BE80-2236-46D0-915F-11D259BD18F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -757,82 +757,82 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" style="2"/>
-    <col min="3" max="5" width="12.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.08984375" style="2"/>
-    <col min="10" max="10" width="22.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="5" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.08984375" style="2"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>"Values belong to the D column strting at "&amp;E17&amp;"th row."</f>
         <v>Values belong to the D column strting at 17th row.</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="str">
         <f>"Value count should be @ C"&amp;E17&amp;". That cell will go red if the value seems to be wrong, but you can ignore this."</f>
         <v>Value count should be @ C17. That cell will go red if the value seems to be wrong, but you can ignore this.</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P11" s="4"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="5">
         <f>COUNT(D:D)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>60</v>
       </c>
@@ -873,7 +873,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
@@ -905,7 +905,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>48</v>
       </c>
@@ -955,7 +955,7 @@
         <v>-17.5</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>2004</v>
       </c>
@@ -963,7 +963,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>2005</v>
       </c>
@@ -971,7 +971,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>2006</v>
       </c>
@@ -979,7 +979,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>2007</v>
       </c>
@@ -987,7 +987,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>2008</v>
       </c>
@@ -999,7 +999,7 @@
         <v>D23: 63</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>2009</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>D24: 47</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>2010</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>Q1 = 110</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>2011</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>2012</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>D34: 43</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>2013</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>D35: 32</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>2014</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>Q3 = 75</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>2015</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>2016</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>2017</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>2018</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>2019</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>2020</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>2021</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>2022</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>2023</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>2024</v>
       </c>
@@ -1177,14 +1177,14 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1242</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1192,132 +1192,132 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>27</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>28</v>
       </c>
@@ -1333,622 +1333,622 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>121</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>122</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>123</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>126</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>127</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>132</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>133</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>134</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>136</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>137</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>138</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>139</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>140</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>141</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>142</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>143</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>144</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>145</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>146</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>147</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>148</v>
       </c>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>149</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>151</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>152</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>153</v>
       </c>
@@ -1964,432 +1964,432 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>154</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>155</v>
       </c>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>156</v>
       </c>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>158</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>159</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>160</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>161</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>162</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>163</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>164</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>165</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>166</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>167</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>168</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>169</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>170</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>171</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>172</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>173</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>174</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>175</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>176</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180">
         <v>177</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>178</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>180</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>181</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185">
         <v>182</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186">
         <v>183</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187">
         <v>184</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188">
         <v>185</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189">
         <v>186</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190">
         <v>187</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191">
         <v>188</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192">
         <v>189</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193">
         <v>190</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194">
         <v>191</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195">
         <v>192</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196">
         <v>193</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197">
         <v>194</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198">
         <v>195</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199">
         <v>196</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200">
         <v>197</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201">
         <v>198</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202">
         <v>199</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203">
         <v>200</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204">
         <v>201</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205">
         <v>202</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206">
         <v>203</v>
       </c>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207">
         <v>204</v>
       </c>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208">
         <v>205</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209">
         <v>206</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210">
         <v>207</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211">
         <v>208</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212">
         <v>209</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213">
         <v>210</v>
       </c>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214">
         <v>211</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215">
         <v>212</v>
       </c>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216">
         <v>213</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217">
         <v>214</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218">
         <v>215</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219">
         <v>216</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220">
         <v>217</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221">
         <v>218</v>
       </c>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222">
         <v>219</v>
       </c>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223">
         <v>220</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224">
         <v>221</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225">
         <v>222</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226">
         <v>223</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227">
         <v>224</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228">
         <v>225</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229">
         <v>226</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230">
         <v>227</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231">
         <v>228</v>
       </c>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232">
         <v>229</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233">
         <v>230</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234">
         <v>231</v>
       </c>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235">
         <v>232</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236">
         <v>233</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237">
         <v>234</v>
       </c>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238">
         <v>235</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239">
         <v>236</v>
       </c>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240">
         <v>237</v>
       </c>
     </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B241">
         <v>238</v>
       </c>
     </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B242">
         <v>239</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B243">
         <v>240</v>
       </c>
@@ -2405,487 +2405,487 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B244">
         <v>241</v>
       </c>
     </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B245">
         <v>242</v>
       </c>
     </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B246">
         <v>243</v>
       </c>
     </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B247">
         <v>244</v>
       </c>
     </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B248">
         <v>245</v>
       </c>
     </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B249">
         <v>246</v>
       </c>
     </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B250">
         <v>247</v>
       </c>
     </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B251">
         <v>248</v>
       </c>
     </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B252">
         <v>249</v>
       </c>
     </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B253">
         <v>250</v>
       </c>
     </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B254">
         <v>251</v>
       </c>
     </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B255">
         <v>252</v>
       </c>
     </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B256">
         <v>253</v>
       </c>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257">
         <v>254</v>
       </c>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B258">
         <v>255</v>
       </c>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B259">
         <v>256</v>
       </c>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B260">
         <v>257</v>
       </c>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B261">
         <v>258</v>
       </c>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B262">
         <v>259</v>
       </c>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B263">
         <v>260</v>
       </c>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B264">
         <v>261</v>
       </c>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B265">
         <v>262</v>
       </c>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B266">
         <v>263</v>
       </c>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B267">
         <v>264</v>
       </c>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B268">
         <v>265</v>
       </c>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B269">
         <v>266</v>
       </c>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B270">
         <v>267</v>
       </c>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B271">
         <v>268</v>
       </c>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B272">
         <v>269</v>
       </c>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B273">
         <v>270</v>
       </c>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B274">
         <v>271</v>
       </c>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B275">
         <v>272</v>
       </c>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B276">
         <v>273</v>
       </c>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B277">
         <v>274</v>
       </c>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B278">
         <v>275</v>
       </c>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B279">
         <v>276</v>
       </c>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B280">
         <v>277</v>
       </c>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B281">
         <v>278</v>
       </c>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B282">
         <v>279</v>
       </c>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B283">
         <v>280</v>
       </c>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B284">
         <v>281</v>
       </c>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B285">
         <v>282</v>
       </c>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B286">
         <v>283</v>
       </c>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B287">
         <v>284</v>
       </c>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B288">
         <v>285</v>
       </c>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B289">
         <v>286</v>
       </c>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B290">
         <v>287</v>
       </c>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B291">
         <v>288</v>
       </c>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B292">
         <v>289</v>
       </c>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B293">
         <v>290</v>
       </c>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B294">
         <v>291</v>
       </c>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B295">
         <v>292</v>
       </c>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B296">
         <v>293</v>
       </c>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B297">
         <v>294</v>
       </c>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B298">
         <v>295</v>
       </c>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B299">
         <v>296</v>
       </c>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B300">
         <v>297</v>
       </c>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B301">
         <v>298</v>
       </c>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B302">
         <v>299</v>
       </c>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B303">
         <v>300</v>
       </c>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B304">
         <v>301</v>
       </c>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B305">
         <v>302</v>
       </c>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B306">
         <v>303</v>
       </c>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B307">
         <v>304</v>
       </c>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B308">
         <v>305</v>
       </c>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B309">
         <v>306</v>
       </c>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B310">
         <v>307</v>
       </c>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B311">
         <v>308</v>
       </c>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B312">
         <v>309</v>
       </c>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B313">
         <v>310</v>
       </c>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B314">
         <v>311</v>
       </c>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B315">
         <v>312</v>
       </c>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B316">
         <v>313</v>
       </c>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B317">
         <v>314</v>
       </c>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B318">
         <v>315</v>
       </c>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B319">
         <v>316</v>
       </c>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B320">
         <v>317</v>
       </c>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B321">
         <v>318</v>
       </c>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B322">
         <v>319</v>
       </c>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B323">
         <v>320</v>
       </c>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B324">
         <v>321</v>
       </c>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B325">
         <v>322</v>
       </c>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B326">
         <v>323</v>
       </c>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B327">
         <v>324</v>
       </c>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B328">
         <v>325</v>
       </c>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B329">
         <v>326</v>
       </c>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B330">
         <v>327</v>
       </c>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B331">
         <v>328</v>
       </c>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B332">
         <v>329</v>
       </c>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B333">
         <v>330</v>
       </c>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B334">
         <v>331</v>
       </c>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B335">
         <v>332</v>
       </c>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B336">
         <v>333</v>
       </c>
     </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B337">
         <v>334</v>
       </c>
     </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B338">
         <v>335</v>
       </c>
     </row>
-    <row r="339" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B339">
         <v>336</v>
       </c>
     </row>
-    <row r="340" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B340">
         <v>337</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B341">
         <v>338</v>
       </c>
@@ -2901,402 +2901,402 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B342">
         <v>339</v>
       </c>
     </row>
-    <row r="343" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B343">
         <v>340</v>
       </c>
     </row>
-    <row r="344" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B344">
         <v>341</v>
       </c>
     </row>
-    <row r="345" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B345">
         <v>342</v>
       </c>
     </row>
-    <row r="346" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B346">
         <v>343</v>
       </c>
     </row>
-    <row r="347" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B347">
         <v>344</v>
       </c>
     </row>
-    <row r="348" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B348">
         <v>345</v>
       </c>
     </row>
-    <row r="349" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B349">
         <v>346</v>
       </c>
     </row>
-    <row r="350" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B350">
         <v>347</v>
       </c>
     </row>
-    <row r="351" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B351">
         <v>348</v>
       </c>
     </row>
-    <row r="352" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B352">
         <v>349</v>
       </c>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B353">
         <v>350</v>
       </c>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B354">
         <v>351</v>
       </c>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B355">
         <v>352</v>
       </c>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B356">
         <v>353</v>
       </c>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B357">
         <v>354</v>
       </c>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B358">
         <v>355</v>
       </c>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B359">
         <v>356</v>
       </c>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B360">
         <v>357</v>
       </c>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B361">
         <v>358</v>
       </c>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B362">
         <v>359</v>
       </c>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B363">
         <v>360</v>
       </c>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B364">
         <v>361</v>
       </c>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B365">
         <v>362</v>
       </c>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B366">
         <v>363</v>
       </c>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B367">
         <v>364</v>
       </c>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B368">
         <v>365</v>
       </c>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B369">
         <v>366</v>
       </c>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B370">
         <v>367</v>
       </c>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B371">
         <v>368</v>
       </c>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B372">
         <v>369</v>
       </c>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B373">
         <v>370</v>
       </c>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B374">
         <v>371</v>
       </c>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B375">
         <v>372</v>
       </c>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B376">
         <v>373</v>
       </c>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B377">
         <v>374</v>
       </c>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B378">
         <v>375</v>
       </c>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B379">
         <v>376</v>
       </c>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B380">
         <v>377</v>
       </c>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B381">
         <v>378</v>
       </c>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B382">
         <v>379</v>
       </c>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B383">
         <v>380</v>
       </c>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B384">
         <v>381</v>
       </c>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B385">
         <v>382</v>
       </c>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B386">
         <v>383</v>
       </c>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B387">
         <v>384</v>
       </c>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B388">
         <v>385</v>
       </c>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B389">
         <v>386</v>
       </c>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B390">
         <v>387</v>
       </c>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B391">
         <v>388</v>
       </c>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B392">
         <v>389</v>
       </c>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B393">
         <v>390</v>
       </c>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B394">
         <v>391</v>
       </c>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B395">
         <v>392</v>
       </c>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B396">
         <v>393</v>
       </c>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B397">
         <v>394</v>
       </c>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B398">
         <v>395</v>
       </c>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B399">
         <v>396</v>
       </c>
     </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B400">
         <v>397</v>
       </c>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B401">
         <v>398</v>
       </c>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B402">
         <v>399</v>
       </c>
     </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B403">
         <v>400</v>
       </c>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B404">
         <v>401</v>
       </c>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B405">
         <v>402</v>
       </c>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B406">
         <v>403</v>
       </c>
     </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B407">
         <v>404</v>
       </c>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B408">
         <v>405</v>
       </c>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B409">
         <v>406</v>
       </c>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B410">
         <v>407</v>
       </c>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B411">
         <v>408</v>
       </c>
     </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B412">
         <v>409</v>
       </c>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B413">
         <v>410</v>
       </c>
     </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B414">
         <v>411</v>
       </c>
     </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B415">
         <v>412</v>
       </c>
     </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B416">
         <v>413</v>
       </c>
     </row>
-    <row r="417" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="417" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B417">
         <v>414</v>
       </c>
     </row>
-    <row r="418" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="418" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B418">
         <v>415</v>
       </c>
     </row>
-    <row r="419" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B419">
         <v>416</v>
       </c>
     </row>
-    <row r="420" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B420">
         <v>417</v>
       </c>
     </row>
-    <row r="421" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B421">
         <v>418</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="422" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B422">
         <v>419</v>
       </c>
@@ -3312,272 +3312,272 @@
         <v>9</v>
       </c>
     </row>
-    <row r="423" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="423" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B423">
         <v>420</v>
       </c>
     </row>
-    <row r="424" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="424" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B424">
         <v>421</v>
       </c>
     </row>
-    <row r="425" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B425">
         <v>422</v>
       </c>
     </row>
-    <row r="426" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="426" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B426">
         <v>423</v>
       </c>
     </row>
-    <row r="427" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="427" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B427">
         <v>424</v>
       </c>
     </row>
-    <row r="428" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B428">
         <v>425</v>
       </c>
     </row>
-    <row r="429" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="429" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B429">
         <v>426</v>
       </c>
     </row>
-    <row r="430" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="430" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B430">
         <v>427</v>
       </c>
     </row>
-    <row r="431" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="431" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B431">
         <v>428</v>
       </c>
     </row>
-    <row r="432" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B432">
         <v>429</v>
       </c>
     </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B433">
         <v>430</v>
       </c>
     </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B434">
         <v>431</v>
       </c>
     </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B435">
         <v>432</v>
       </c>
     </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B436">
         <v>433</v>
       </c>
     </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B437">
         <v>434</v>
       </c>
     </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B438">
         <v>435</v>
       </c>
     </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B439">
         <v>436</v>
       </c>
     </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B440">
         <v>437</v>
       </c>
     </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B441">
         <v>438</v>
       </c>
     </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B442">
         <v>439</v>
       </c>
     </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B443">
         <v>440</v>
       </c>
     </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B444">
         <v>441</v>
       </c>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B445">
         <v>442</v>
       </c>
     </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B446">
         <v>443</v>
       </c>
     </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B447">
         <v>444</v>
       </c>
     </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B448">
         <v>445</v>
       </c>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B449">
         <v>446</v>
       </c>
     </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B450">
         <v>447</v>
       </c>
     </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B451">
         <v>448</v>
       </c>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B452">
         <v>449</v>
       </c>
     </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B453">
         <v>450</v>
       </c>
     </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B454">
         <v>451</v>
       </c>
     </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="455" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B455">
         <v>452</v>
       </c>
     </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="456" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B456">
         <v>453</v>
       </c>
     </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B457">
         <v>454</v>
       </c>
     </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B458">
         <v>455</v>
       </c>
     </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B459">
         <v>456</v>
       </c>
     </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B460">
         <v>457</v>
       </c>
     </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B461">
         <v>458</v>
       </c>
     </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="462" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B462">
         <v>459</v>
       </c>
     </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B463">
         <v>460</v>
       </c>
     </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B464">
         <v>461</v>
       </c>
     </row>
-    <row r="465" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B465">
         <v>462</v>
       </c>
     </row>
-    <row r="466" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B466">
         <v>463</v>
       </c>
     </row>
-    <row r="467" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B467">
         <v>464</v>
       </c>
     </row>
-    <row r="468" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B468">
         <v>465</v>
       </c>
     </row>
-    <row r="469" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B469">
         <v>466</v>
       </c>
     </row>
-    <row r="470" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B470">
         <v>467</v>
       </c>
     </row>
-    <row r="471" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B471">
         <v>468</v>
       </c>
     </row>
-    <row r="472" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B472">
         <v>469</v>
       </c>
     </row>
-    <row r="473" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B473">
         <v>470</v>
       </c>
     </row>
-    <row r="474" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B474">
         <v>471</v>
       </c>
     </row>
-    <row r="475" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B475">
         <v>472</v>
       </c>
     </row>
-    <row r="476" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B476">
         <v>473</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="477" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B477">
         <v>474</v>
       </c>
@@ -3593,312 +3593,312 @@
         <v>11</v>
       </c>
     </row>
-    <row r="478" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B478">
         <v>475</v>
       </c>
     </row>
-    <row r="479" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B479">
         <v>476</v>
       </c>
     </row>
-    <row r="480" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="480" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B480">
         <v>477</v>
       </c>
     </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B481">
         <v>478</v>
       </c>
     </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B482">
         <v>479</v>
       </c>
     </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B483">
         <v>480</v>
       </c>
     </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B484">
         <v>481</v>
       </c>
     </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B485">
         <v>482</v>
       </c>
     </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B486">
         <v>483</v>
       </c>
     </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B487">
         <v>484</v>
       </c>
     </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="488" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B488">
         <v>485</v>
       </c>
     </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="489" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B489">
         <v>486</v>
       </c>
     </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B490">
         <v>487</v>
       </c>
     </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="491" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B491">
         <v>488</v>
       </c>
     </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="492" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B492">
         <v>489</v>
       </c>
     </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="493" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B493">
         <v>490</v>
       </c>
     </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B494">
         <v>491</v>
       </c>
     </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="495" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B495">
         <v>492</v>
       </c>
     </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="496" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B496">
         <v>493</v>
       </c>
     </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B497">
         <v>494</v>
       </c>
     </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B498">
         <v>495</v>
       </c>
     </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B499">
         <v>496</v>
       </c>
     </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B500">
         <v>497</v>
       </c>
     </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="501" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B501">
         <v>498</v>
       </c>
     </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="502" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B502">
         <v>499</v>
       </c>
     </row>
-    <row r="503" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="503" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B503">
         <v>500</v>
       </c>
     </row>
-    <row r="504" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="504" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B504">
         <v>501</v>
       </c>
     </row>
-    <row r="505" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="505" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B505">
         <v>502</v>
       </c>
     </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="506" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B506">
         <v>503</v>
       </c>
     </row>
-    <row r="507" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="507" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B507">
         <v>504</v>
       </c>
     </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="508" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B508">
         <v>505</v>
       </c>
     </row>
-    <row r="509" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="509" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B509">
         <v>506</v>
       </c>
     </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="510" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B510">
         <v>507</v>
       </c>
     </row>
-    <row r="511" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="511" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B511">
         <v>508</v>
       </c>
     </row>
-    <row r="512" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="512" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B512">
         <v>509</v>
       </c>
     </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="513" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B513">
         <v>510</v>
       </c>
     </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="514" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B514">
         <v>511</v>
       </c>
     </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="515" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B515">
         <v>512</v>
       </c>
     </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="516" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B516">
         <v>513</v>
       </c>
     </row>
-    <row r="517" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="517" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B517">
         <v>514</v>
       </c>
     </row>
-    <row r="518" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="518" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B518">
         <v>515</v>
       </c>
     </row>
-    <row r="519" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="519" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B519">
         <v>516</v>
       </c>
     </row>
-    <row r="520" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="520" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B520">
         <v>517</v>
       </c>
     </row>
-    <row r="521" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="521" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B521">
         <v>518</v>
       </c>
     </row>
-    <row r="522" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="522" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B522">
         <v>519</v>
       </c>
     </row>
-    <row r="523" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="523" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B523">
         <v>520</v>
       </c>
     </row>
-    <row r="524" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="524" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B524">
         <v>521</v>
       </c>
     </row>
-    <row r="525" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="525" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B525">
         <v>522</v>
       </c>
     </row>
-    <row r="526" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="526" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B526">
         <v>523</v>
       </c>
     </row>
-    <row r="527" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="527" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B527">
         <v>524</v>
       </c>
     </row>
-    <row r="528" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="528" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B528">
         <v>525</v>
       </c>
     </row>
-    <row r="529" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="529" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B529">
         <v>526</v>
       </c>
     </row>
-    <row r="530" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="530" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B530">
         <v>527</v>
       </c>
     </row>
-    <row r="531" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="531" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B531">
         <v>528</v>
       </c>
     </row>
-    <row r="532" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="532" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B532">
         <v>529</v>
       </c>
     </row>
-    <row r="533" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="533" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B533">
         <v>530</v>
       </c>
     </row>
-    <row r="534" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="534" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B534">
         <v>531</v>
       </c>
     </row>
-    <row r="535" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="535" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B535">
         <v>532</v>
       </c>
     </row>
-    <row r="536" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="536" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B536">
         <v>533</v>
       </c>
     </row>
-    <row r="537" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="537" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B537">
         <v>534</v>
       </c>
     </row>
-    <row r="538" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="538" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B538">
         <v>535</v>
       </c>
     </row>
-    <row r="539" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="539" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B539">
         <v>536</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="540" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="540" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B540">
         <v>537</v>
       </c>
@@ -3914,232 +3914,232 @@
         <v>13</v>
       </c>
     </row>
-    <row r="541" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="541" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B541">
         <v>538</v>
       </c>
     </row>
-    <row r="542" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="542" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B542">
         <v>539</v>
       </c>
     </row>
-    <row r="543" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="543" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B543">
         <v>540</v>
       </c>
     </row>
-    <row r="544" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="544" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B544">
         <v>541</v>
       </c>
     </row>
-    <row r="545" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="545" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B545">
         <v>542</v>
       </c>
     </row>
-    <row r="546" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="546" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B546">
         <v>543</v>
       </c>
     </row>
-    <row r="547" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="547" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B547">
         <v>544</v>
       </c>
     </row>
-    <row r="548" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="548" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B548">
         <v>545</v>
       </c>
     </row>
-    <row r="549" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="549" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B549">
         <v>546</v>
       </c>
     </row>
-    <row r="550" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="550" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B550">
         <v>547</v>
       </c>
     </row>
-    <row r="551" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="551" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B551">
         <v>548</v>
       </c>
     </row>
-    <row r="552" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="552" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B552">
         <v>549</v>
       </c>
     </row>
-    <row r="553" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="553" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B553">
         <v>550</v>
       </c>
     </row>
-    <row r="554" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="554" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B554">
         <v>551</v>
       </c>
     </row>
-    <row r="555" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="555" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B555">
         <v>552</v>
       </c>
     </row>
-    <row r="556" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="556" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B556">
         <v>553</v>
       </c>
     </row>
-    <row r="557" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="557" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B557">
         <v>554</v>
       </c>
     </row>
-    <row r="558" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="558" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B558">
         <v>555</v>
       </c>
     </row>
-    <row r="559" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="559" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B559">
         <v>556</v>
       </c>
     </row>
-    <row r="560" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="560" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B560">
         <v>557</v>
       </c>
     </row>
-    <row r="561" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="561" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B561">
         <v>558</v>
       </c>
     </row>
-    <row r="562" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="562" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B562">
         <v>559</v>
       </c>
     </row>
-    <row r="563" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="563" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B563">
         <v>560</v>
       </c>
     </row>
-    <row r="564" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="564" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B564">
         <v>561</v>
       </c>
     </row>
-    <row r="565" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="565" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B565">
         <v>562</v>
       </c>
     </row>
-    <row r="566" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="566" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B566">
         <v>563</v>
       </c>
     </row>
-    <row r="567" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="567" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B567">
         <v>564</v>
       </c>
     </row>
-    <row r="568" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="568" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B568">
         <v>565</v>
       </c>
     </row>
-    <row r="569" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="569" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B569">
         <v>566</v>
       </c>
     </row>
-    <row r="570" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="570" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B570">
         <v>567</v>
       </c>
     </row>
-    <row r="571" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="571" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B571">
         <v>568</v>
       </c>
     </row>
-    <row r="572" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="572" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B572">
         <v>569</v>
       </c>
     </row>
-    <row r="573" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="573" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B573">
         <v>570</v>
       </c>
     </row>
-    <row r="574" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="574" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B574">
         <v>571</v>
       </c>
     </row>
-    <row r="575" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B575">
         <v>572</v>
       </c>
     </row>
-    <row r="576" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="576" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B576">
         <v>573</v>
       </c>
     </row>
-    <row r="577" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="577" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B577">
         <v>574</v>
       </c>
     </row>
-    <row r="578" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="578" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B578">
         <v>575</v>
       </c>
     </row>
-    <row r="579" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="579" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B579">
         <v>576</v>
       </c>
     </row>
-    <row r="580" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="580" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B580">
         <v>577</v>
       </c>
     </row>
-    <row r="581" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="581" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B581">
         <v>578</v>
       </c>
     </row>
-    <row r="582" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="582" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B582">
         <v>579</v>
       </c>
     </row>
-    <row r="583" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="583" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B583">
         <v>580</v>
       </c>
     </row>
-    <row r="584" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="584" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B584">
         <v>581</v>
       </c>
     </row>
-    <row r="585" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="585" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B585">
         <v>582</v>
       </c>
     </row>
-    <row r="586" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="586" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B586">
         <v>583</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="587" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="587" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B587">
         <v>584</v>
       </c>
@@ -4155,282 +4155,282 @@
         <v>15</v>
       </c>
     </row>
-    <row r="588" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="588" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B588">
         <v>585</v>
       </c>
     </row>
-    <row r="589" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="589" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B589">
         <v>586</v>
       </c>
     </row>
-    <row r="590" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="590" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B590">
         <v>587</v>
       </c>
     </row>
-    <row r="591" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="591" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B591">
         <v>588</v>
       </c>
     </row>
-    <row r="592" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="592" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B592">
         <v>589</v>
       </c>
     </row>
-    <row r="593" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="593" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B593">
         <v>590</v>
       </c>
     </row>
-    <row r="594" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="594" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B594">
         <v>591</v>
       </c>
     </row>
-    <row r="595" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="595" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B595">
         <v>592</v>
       </c>
     </row>
-    <row r="596" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="596" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B596">
         <v>593</v>
       </c>
     </row>
-    <row r="597" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="597" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B597">
         <v>594</v>
       </c>
     </row>
-    <row r="598" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="598" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B598">
         <v>595</v>
       </c>
     </row>
-    <row r="599" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="599" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B599">
         <v>596</v>
       </c>
     </row>
-    <row r="600" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="600" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B600">
         <v>597</v>
       </c>
     </row>
-    <row r="601" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="601" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B601">
         <v>598</v>
       </c>
     </row>
-    <row r="602" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="602" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B602">
         <v>599</v>
       </c>
     </row>
-    <row r="603" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="603" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B603">
         <v>600</v>
       </c>
     </row>
-    <row r="604" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="604" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B604">
         <v>601</v>
       </c>
     </row>
-    <row r="605" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="605" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B605">
         <v>602</v>
       </c>
     </row>
-    <row r="606" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="606" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B606">
         <v>603</v>
       </c>
     </row>
-    <row r="607" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="607" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B607">
         <v>604</v>
       </c>
     </row>
-    <row r="608" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="608" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B608">
         <v>605</v>
       </c>
     </row>
-    <row r="609" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="609" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B609">
         <v>606</v>
       </c>
     </row>
-    <row r="610" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="610" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B610">
         <v>607</v>
       </c>
     </row>
-    <row r="611" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="611" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B611">
         <v>608</v>
       </c>
     </row>
-    <row r="612" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="612" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B612">
         <v>609</v>
       </c>
     </row>
-    <row r="613" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="613" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B613">
         <v>610</v>
       </c>
     </row>
-    <row r="614" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="614" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B614">
         <v>611</v>
       </c>
     </row>
-    <row r="615" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="615" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B615">
         <v>612</v>
       </c>
     </row>
-    <row r="616" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="616" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B616">
         <v>613</v>
       </c>
     </row>
-    <row r="617" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="617" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B617">
         <v>614</v>
       </c>
     </row>
-    <row r="618" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="618" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B618">
         <v>615</v>
       </c>
     </row>
-    <row r="619" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="619" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B619">
         <v>616</v>
       </c>
     </row>
-    <row r="620" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="620" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B620">
         <v>617</v>
       </c>
     </row>
-    <row r="621" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="621" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B621">
         <v>618</v>
       </c>
     </row>
-    <row r="622" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="622" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B622">
         <v>619</v>
       </c>
     </row>
-    <row r="623" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="623" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B623">
         <v>620</v>
       </c>
     </row>
-    <row r="624" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="624" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B624">
         <v>621</v>
       </c>
     </row>
-    <row r="625" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="625" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B625">
         <v>622</v>
       </c>
     </row>
-    <row r="626" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="626" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B626">
         <v>623</v>
       </c>
     </row>
-    <row r="627" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="627" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B627">
         <v>624</v>
       </c>
     </row>
-    <row r="628" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="628" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B628">
         <v>625</v>
       </c>
     </row>
-    <row r="629" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="629" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B629">
         <v>626</v>
       </c>
     </row>
-    <row r="630" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="630" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B630">
         <v>627</v>
       </c>
     </row>
-    <row r="631" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="631" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B631">
         <v>628</v>
       </c>
     </row>
-    <row r="632" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="632" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B632">
         <v>629</v>
       </c>
     </row>
-    <row r="633" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="633" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B633">
         <v>630</v>
       </c>
     </row>
-    <row r="634" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="634" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B634">
         <v>631</v>
       </c>
     </row>
-    <row r="635" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="635" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B635">
         <v>632</v>
       </c>
     </row>
-    <row r="636" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="636" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B636">
         <v>633</v>
       </c>
     </row>
-    <row r="637" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="637" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B637">
         <v>634</v>
       </c>
     </row>
-    <row r="638" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="638" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B638">
         <v>635</v>
       </c>
     </row>
-    <row r="639" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="639" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B639">
         <v>636</v>
       </c>
     </row>
-    <row r="640" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="640" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B640">
         <v>637</v>
       </c>
     </row>
-    <row r="641" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="641" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B641">
         <v>638</v>
       </c>
     </row>
-    <row r="642" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="642" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B642">
         <v>639</v>
       </c>
     </row>
-    <row r="643" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="643" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B643">
         <v>640</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="644" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="644" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B644">
         <v>641</v>
       </c>
@@ -4446,322 +4446,322 @@
         <v>17</v>
       </c>
     </row>
-    <row r="645" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="645" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B645">
         <v>642</v>
       </c>
     </row>
-    <row r="646" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="646" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B646">
         <v>643</v>
       </c>
     </row>
-    <row r="647" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="647" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B647">
         <v>644</v>
       </c>
     </row>
-    <row r="648" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="648" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B648">
         <v>645</v>
       </c>
     </row>
-    <row r="649" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="649" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B649">
         <v>646</v>
       </c>
     </row>
-    <row r="650" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="650" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B650">
         <v>647</v>
       </c>
     </row>
-    <row r="651" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="651" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B651">
         <v>648</v>
       </c>
     </row>
-    <row r="652" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="652" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B652">
         <v>649</v>
       </c>
     </row>
-    <row r="653" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="653" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B653">
         <v>650</v>
       </c>
     </row>
-    <row r="654" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="654" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B654">
         <v>651</v>
       </c>
     </row>
-    <row r="655" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="655" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B655">
         <v>652</v>
       </c>
     </row>
-    <row r="656" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="656" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B656">
         <v>653</v>
       </c>
     </row>
-    <row r="657" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="657" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B657">
         <v>654</v>
       </c>
     </row>
-    <row r="658" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="658" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B658">
         <v>655</v>
       </c>
     </row>
-    <row r="659" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="659" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B659">
         <v>656</v>
       </c>
     </row>
-    <row r="660" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="660" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B660">
         <v>657</v>
       </c>
     </row>
-    <row r="661" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="661" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B661">
         <v>658</v>
       </c>
     </row>
-    <row r="662" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="662" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B662">
         <v>659</v>
       </c>
     </row>
-    <row r="663" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="663" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B663">
         <v>660</v>
       </c>
     </row>
-    <row r="664" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="664" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B664">
         <v>661</v>
       </c>
     </row>
-    <row r="665" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="665" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B665">
         <v>662</v>
       </c>
     </row>
-    <row r="666" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="666" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B666">
         <v>663</v>
       </c>
     </row>
-    <row r="667" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="667" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B667">
         <v>664</v>
       </c>
     </row>
-    <row r="668" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="668" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B668">
         <v>665</v>
       </c>
     </row>
-    <row r="669" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="669" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B669">
         <v>666</v>
       </c>
     </row>
-    <row r="670" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="670" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B670">
         <v>667</v>
       </c>
     </row>
-    <row r="671" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="671" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B671">
         <v>668</v>
       </c>
     </row>
-    <row r="672" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="672" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B672">
         <v>669</v>
       </c>
     </row>
-    <row r="673" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="673" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B673">
         <v>670</v>
       </c>
     </row>
-    <row r="674" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="674" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B674">
         <v>671</v>
       </c>
     </row>
-    <row r="675" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="675" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B675">
         <v>672</v>
       </c>
     </row>
-    <row r="676" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="676" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B676">
         <v>673</v>
       </c>
     </row>
-    <row r="677" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="677" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B677">
         <v>674</v>
       </c>
     </row>
-    <row r="678" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="678" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B678">
         <v>675</v>
       </c>
     </row>
-    <row r="679" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="679" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B679">
         <v>676</v>
       </c>
     </row>
-    <row r="680" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="680" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B680">
         <v>677</v>
       </c>
     </row>
-    <row r="681" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="681" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B681">
         <v>678</v>
       </c>
     </row>
-    <row r="682" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="682" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B682">
         <v>679</v>
       </c>
     </row>
-    <row r="683" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="683" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B683">
         <v>680</v>
       </c>
     </row>
-    <row r="684" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="684" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B684">
         <v>681</v>
       </c>
     </row>
-    <row r="685" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="685" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B685">
         <v>682</v>
       </c>
     </row>
-    <row r="686" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="686" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B686">
         <v>683</v>
       </c>
     </row>
-    <row r="687" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="687" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B687">
         <v>684</v>
       </c>
     </row>
-    <row r="688" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="688" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B688">
         <v>685</v>
       </c>
     </row>
-    <row r="689" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="689" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B689">
         <v>686</v>
       </c>
     </row>
-    <row r="690" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="690" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B690">
         <v>687</v>
       </c>
     </row>
-    <row r="691" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="691" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B691">
         <v>688</v>
       </c>
     </row>
-    <row r="692" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="692" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B692">
         <v>689</v>
       </c>
     </row>
-    <row r="693" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="693" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B693">
         <v>690</v>
       </c>
     </row>
-    <row r="694" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="694" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B694">
         <v>691</v>
       </c>
     </row>
-    <row r="695" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="695" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B695">
         <v>692</v>
       </c>
     </row>
-    <row r="696" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="696" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B696">
         <v>693</v>
       </c>
     </row>
-    <row r="697" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="697" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B697">
         <v>694</v>
       </c>
     </row>
-    <row r="698" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="698" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B698">
         <v>695</v>
       </c>
     </row>
-    <row r="699" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="699" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B699">
         <v>696</v>
       </c>
     </row>
-    <row r="700" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="700" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B700">
         <v>697</v>
       </c>
     </row>
-    <row r="701" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="701" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B701">
         <v>698</v>
       </c>
     </row>
-    <row r="702" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="702" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B702">
         <v>699</v>
       </c>
     </row>
-    <row r="703" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="703" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B703">
         <v>700</v>
       </c>
     </row>
-    <row r="704" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="704" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B704">
         <v>701</v>
       </c>
     </row>
-    <row r="705" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="705" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B705">
         <v>702</v>
       </c>
     </row>
-    <row r="706" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="706" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B706">
         <v>703</v>
       </c>
     </row>
-    <row r="707" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="707" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B707">
         <v>704</v>
       </c>
     </row>
-    <row r="708" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="708" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B708">
         <v>705</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="709" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="709" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B709">
         <v>706</v>
       </c>
@@ -4777,412 +4777,412 @@
         <v>19</v>
       </c>
     </row>
-    <row r="710" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="710" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B710">
         <v>707</v>
       </c>
     </row>
-    <row r="711" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="711" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B711">
         <v>708</v>
       </c>
     </row>
-    <row r="712" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="712" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B712">
         <v>709</v>
       </c>
     </row>
-    <row r="713" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="713" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B713">
         <v>710</v>
       </c>
     </row>
-    <row r="714" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="714" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B714">
         <v>711</v>
       </c>
     </row>
-    <row r="715" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="715" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B715">
         <v>712</v>
       </c>
     </row>
-    <row r="716" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="716" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B716">
         <v>713</v>
       </c>
     </row>
-    <row r="717" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="717" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B717">
         <v>714</v>
       </c>
     </row>
-    <row r="718" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="718" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B718">
         <v>715</v>
       </c>
     </row>
-    <row r="719" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="719" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B719">
         <v>716</v>
       </c>
     </row>
-    <row r="720" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="720" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B720">
         <v>717</v>
       </c>
     </row>
-    <row r="721" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="721" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B721">
         <v>718</v>
       </c>
     </row>
-    <row r="722" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="722" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B722">
         <v>719</v>
       </c>
     </row>
-    <row r="723" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="723" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B723">
         <v>720</v>
       </c>
     </row>
-    <row r="724" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="724" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B724">
         <v>721</v>
       </c>
     </row>
-    <row r="725" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="725" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B725">
         <v>722</v>
       </c>
     </row>
-    <row r="726" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="726" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B726">
         <v>723</v>
       </c>
     </row>
-    <row r="727" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="727" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B727">
         <v>724</v>
       </c>
     </row>
-    <row r="728" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="728" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B728">
         <v>725</v>
       </c>
     </row>
-    <row r="729" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="729" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B729">
         <v>726</v>
       </c>
     </row>
-    <row r="730" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="730" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B730">
         <v>727</v>
       </c>
     </row>
-    <row r="731" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="731" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B731">
         <v>728</v>
       </c>
     </row>
-    <row r="732" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="732" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B732">
         <v>729</v>
       </c>
     </row>
-    <row r="733" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="733" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B733">
         <v>730</v>
       </c>
     </row>
-    <row r="734" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="734" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B734">
         <v>731</v>
       </c>
     </row>
-    <row r="735" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="735" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B735">
         <v>732</v>
       </c>
     </row>
-    <row r="736" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="736" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B736">
         <v>733</v>
       </c>
     </row>
-    <row r="737" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="737" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B737">
         <v>734</v>
       </c>
     </row>
-    <row r="738" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="738" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B738">
         <v>735</v>
       </c>
     </row>
-    <row r="739" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="739" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B739">
         <v>736</v>
       </c>
     </row>
-    <row r="740" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="740" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B740">
         <v>737</v>
       </c>
     </row>
-    <row r="741" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="741" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B741">
         <v>738</v>
       </c>
     </row>
-    <row r="742" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="742" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B742">
         <v>739</v>
       </c>
     </row>
-    <row r="743" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="743" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B743">
         <v>740</v>
       </c>
     </row>
-    <row r="744" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="744" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B744">
         <v>741</v>
       </c>
     </row>
-    <row r="745" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="745" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B745">
         <v>742</v>
       </c>
     </row>
-    <row r="746" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="746" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B746">
         <v>743</v>
       </c>
     </row>
-    <row r="747" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="747" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B747">
         <v>744</v>
       </c>
     </row>
-    <row r="748" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="748" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B748">
         <v>745</v>
       </c>
     </row>
-    <row r="749" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="749" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B749">
         <v>746</v>
       </c>
     </row>
-    <row r="750" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="750" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B750">
         <v>747</v>
       </c>
     </row>
-    <row r="751" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="751" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B751">
         <v>748</v>
       </c>
     </row>
-    <row r="752" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="752" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B752">
         <v>749</v>
       </c>
     </row>
-    <row r="753" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="753" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B753">
         <v>750</v>
       </c>
     </row>
-    <row r="754" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="754" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B754">
         <v>751</v>
       </c>
     </row>
-    <row r="755" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="755" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B755">
         <v>752</v>
       </c>
     </row>
-    <row r="756" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="756" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B756">
         <v>753</v>
       </c>
     </row>
-    <row r="757" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="757" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B757">
         <v>754</v>
       </c>
     </row>
-    <row r="758" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="758" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B758">
         <v>755</v>
       </c>
     </row>
-    <row r="759" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="759" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B759">
         <v>756</v>
       </c>
     </row>
-    <row r="760" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="760" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B760">
         <v>757</v>
       </c>
     </row>
-    <row r="761" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="761" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B761">
         <v>758</v>
       </c>
     </row>
-    <row r="762" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="762" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B762">
         <v>759</v>
       </c>
     </row>
-    <row r="763" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="763" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B763">
         <v>760</v>
       </c>
     </row>
-    <row r="764" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="764" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B764">
         <v>761</v>
       </c>
     </row>
-    <row r="765" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="765" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B765">
         <v>762</v>
       </c>
     </row>
-    <row r="766" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="766" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B766">
         <v>763</v>
       </c>
     </row>
-    <row r="767" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="767" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B767">
         <v>764</v>
       </c>
     </row>
-    <row r="768" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="768" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B768">
         <v>765</v>
       </c>
     </row>
-    <row r="769" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="769" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B769">
         <v>766</v>
       </c>
     </row>
-    <row r="770" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="770" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B770">
         <v>767</v>
       </c>
     </row>
-    <row r="771" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="771" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B771">
         <v>768</v>
       </c>
     </row>
-    <row r="772" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="772" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B772">
         <v>769</v>
       </c>
     </row>
-    <row r="773" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="773" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B773">
         <v>770</v>
       </c>
     </row>
-    <row r="774" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="774" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B774">
         <v>771</v>
       </c>
     </row>
-    <row r="775" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="775" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B775">
         <v>772</v>
       </c>
     </row>
-    <row r="776" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="776" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B776">
         <v>773</v>
       </c>
     </row>
-    <row r="777" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="777" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B777">
         <v>774</v>
       </c>
     </row>
-    <row r="778" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="778" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B778">
         <v>775</v>
       </c>
     </row>
-    <row r="779" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="779" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B779">
         <v>776</v>
       </c>
     </row>
-    <row r="780" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="780" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B780">
         <v>777</v>
       </c>
     </row>
-    <row r="781" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="781" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B781">
         <v>778</v>
       </c>
     </row>
-    <row r="782" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="782" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B782">
         <v>779</v>
       </c>
     </row>
-    <row r="783" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="783" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B783">
         <v>780</v>
       </c>
     </row>
-    <row r="784" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="784" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B784">
         <v>781</v>
       </c>
     </row>
-    <row r="785" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="785" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B785">
         <v>782</v>
       </c>
     </row>
-    <row r="786" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="786" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B786">
         <v>783</v>
       </c>
     </row>
-    <row r="787" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="787" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B787">
         <v>784</v>
       </c>
     </row>
-    <row r="788" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="788" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B788">
         <v>785</v>
       </c>
     </row>
-    <row r="789" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="789" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B789">
         <v>786</v>
       </c>
     </row>
-    <row r="790" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="790" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B790">
         <v>787</v>
       </c>
     </row>
-    <row r="791" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="791" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B791">
         <v>788</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="792" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="792" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B792">
         <v>789</v>
       </c>
@@ -5198,242 +5198,242 @@
         <v>21</v>
       </c>
     </row>
-    <row r="793" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="793" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B793">
         <v>790</v>
       </c>
     </row>
-    <row r="794" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="794" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B794">
         <v>791</v>
       </c>
     </row>
-    <row r="795" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="795" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B795">
         <v>792</v>
       </c>
     </row>
-    <row r="796" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="796" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B796">
         <v>793</v>
       </c>
     </row>
-    <row r="797" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="797" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B797">
         <v>794</v>
       </c>
     </row>
-    <row r="798" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="798" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B798">
         <v>795</v>
       </c>
     </row>
-    <row r="799" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="799" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B799">
         <v>796</v>
       </c>
     </row>
-    <row r="800" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="800" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B800">
         <v>797</v>
       </c>
     </row>
-    <row r="801" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="801" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B801">
         <v>798</v>
       </c>
     </row>
-    <row r="802" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="802" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B802">
         <v>799</v>
       </c>
     </row>
-    <row r="803" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="803" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B803">
         <v>800</v>
       </c>
     </row>
-    <row r="804" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="804" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B804">
         <v>801</v>
       </c>
     </row>
-    <row r="805" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="805" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B805">
         <v>802</v>
       </c>
     </row>
-    <row r="806" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="806" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B806">
         <v>803</v>
       </c>
     </row>
-    <row r="807" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="807" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B807">
         <v>804</v>
       </c>
     </row>
-    <row r="808" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="808" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B808">
         <v>805</v>
       </c>
     </row>
-    <row r="809" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="809" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B809">
         <v>806</v>
       </c>
     </row>
-    <row r="810" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="810" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B810">
         <v>807</v>
       </c>
     </row>
-    <row r="811" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="811" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B811">
         <v>808</v>
       </c>
     </row>
-    <row r="812" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="812" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B812">
         <v>809</v>
       </c>
     </row>
-    <row r="813" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="813" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B813">
         <v>810</v>
       </c>
     </row>
-    <row r="814" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="814" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B814">
         <v>811</v>
       </c>
     </row>
-    <row r="815" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="815" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B815">
         <v>812</v>
       </c>
     </row>
-    <row r="816" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="816" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B816">
         <v>813</v>
       </c>
     </row>
-    <row r="817" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="817" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B817">
         <v>814</v>
       </c>
     </row>
-    <row r="818" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="818" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B818">
         <v>815</v>
       </c>
     </row>
-    <row r="819" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="819" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B819">
         <v>816</v>
       </c>
     </row>
-    <row r="820" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="820" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B820">
         <v>817</v>
       </c>
     </row>
-    <row r="821" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="821" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B821">
         <v>818</v>
       </c>
     </row>
-    <row r="822" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="822" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B822">
         <v>819</v>
       </c>
     </row>
-    <row r="823" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="823" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B823">
         <v>820</v>
       </c>
     </row>
-    <row r="824" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="824" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B824">
         <v>821</v>
       </c>
     </row>
-    <row r="825" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="825" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B825">
         <v>822</v>
       </c>
     </row>
-    <row r="826" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="826" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B826">
         <v>823</v>
       </c>
     </row>
-    <row r="827" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="827" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B827">
         <v>824</v>
       </c>
     </row>
-    <row r="828" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="828" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B828">
         <v>825</v>
       </c>
     </row>
-    <row r="829" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="829" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B829">
         <v>826</v>
       </c>
     </row>
-    <row r="830" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="830" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B830">
         <v>827</v>
       </c>
     </row>
-    <row r="831" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="831" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B831">
         <v>828</v>
       </c>
     </row>
-    <row r="832" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="832" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B832">
         <v>829</v>
       </c>
     </row>
-    <row r="833" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="833" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B833">
         <v>830</v>
       </c>
     </row>
-    <row r="834" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="834" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B834">
         <v>831</v>
       </c>
     </row>
-    <row r="835" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="835" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B835">
         <v>832</v>
       </c>
     </row>
-    <row r="836" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="836" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B836">
         <v>833</v>
       </c>
     </row>
-    <row r="837" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="837" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B837">
         <v>834</v>
       </c>
     </row>
-    <row r="838" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="838" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B838">
         <v>835</v>
       </c>
     </row>
-    <row r="839" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="839" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B839">
         <v>836</v>
       </c>
     </row>
-    <row r="840" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="840" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B840">
         <v>837</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="841" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="841" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B841">
         <v>838</v>
       </c>
@@ -5449,297 +5449,297 @@
         <v>23</v>
       </c>
     </row>
-    <row r="842" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="842" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B842">
         <v>839</v>
       </c>
     </row>
-    <row r="843" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="843" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B843">
         <v>840</v>
       </c>
     </row>
-    <row r="844" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="844" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B844">
         <v>841</v>
       </c>
     </row>
-    <row r="845" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="845" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B845">
         <v>842</v>
       </c>
     </row>
-    <row r="846" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="846" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B846">
         <v>843</v>
       </c>
     </row>
-    <row r="847" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="847" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B847">
         <v>844</v>
       </c>
     </row>
-    <row r="848" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="848" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B848">
         <v>845</v>
       </c>
     </row>
-    <row r="849" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="849" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B849">
         <v>846</v>
       </c>
     </row>
-    <row r="850" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="850" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B850">
         <v>847</v>
       </c>
     </row>
-    <row r="851" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="851" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B851">
         <v>848</v>
       </c>
     </row>
-    <row r="852" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="852" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B852">
         <v>849</v>
       </c>
     </row>
-    <row r="853" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="853" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B853">
         <v>850</v>
       </c>
     </row>
-    <row r="854" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="854" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B854">
         <v>851</v>
       </c>
     </row>
-    <row r="855" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="855" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B855">
         <v>852</v>
       </c>
     </row>
-    <row r="856" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="856" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B856">
         <v>853</v>
       </c>
     </row>
-    <row r="857" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="857" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B857">
         <v>854</v>
       </c>
     </row>
-    <row r="858" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="858" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B858">
         <v>855</v>
       </c>
     </row>
-    <row r="859" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="859" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B859">
         <v>856</v>
       </c>
     </row>
-    <row r="860" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="860" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B860">
         <v>857</v>
       </c>
     </row>
-    <row r="861" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="861" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B861">
         <v>858</v>
       </c>
     </row>
-    <row r="862" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="862" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B862">
         <v>859</v>
       </c>
     </row>
-    <row r="863" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="863" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B863">
         <v>860</v>
       </c>
     </row>
-    <row r="864" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="864" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B864">
         <v>861</v>
       </c>
     </row>
-    <row r="865" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="865" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B865">
         <v>862</v>
       </c>
     </row>
-    <row r="866" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="866" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B866">
         <v>863</v>
       </c>
     </row>
-    <row r="867" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="867" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B867">
         <v>864</v>
       </c>
     </row>
-    <row r="868" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="868" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B868">
         <v>865</v>
       </c>
     </row>
-    <row r="869" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="869" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B869">
         <v>866</v>
       </c>
     </row>
-    <row r="870" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="870" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B870">
         <v>867</v>
       </c>
     </row>
-    <row r="871" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="871" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B871">
         <v>868</v>
       </c>
     </row>
-    <row r="872" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="872" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B872">
         <v>869</v>
       </c>
     </row>
-    <row r="873" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="873" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B873">
         <v>870</v>
       </c>
     </row>
-    <row r="874" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="874" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B874">
         <v>871</v>
       </c>
     </row>
-    <row r="875" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="875" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B875">
         <v>872</v>
       </c>
     </row>
-    <row r="876" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="876" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B876">
         <v>873</v>
       </c>
     </row>
-    <row r="877" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="877" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B877">
         <v>874</v>
       </c>
     </row>
-    <row r="878" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="878" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B878">
         <v>875</v>
       </c>
     </row>
-    <row r="879" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="879" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B879">
         <v>876</v>
       </c>
     </row>
-    <row r="880" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="880" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B880">
         <v>877</v>
       </c>
     </row>
-    <row r="881" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="881" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B881">
         <v>878</v>
       </c>
     </row>
-    <row r="882" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="882" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B882">
         <v>879</v>
       </c>
     </row>
-    <row r="883" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="883" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B883">
         <v>880</v>
       </c>
     </row>
-    <row r="884" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="884" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B884">
         <v>881</v>
       </c>
     </row>
-    <row r="885" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="885" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B885">
         <v>882</v>
       </c>
     </row>
-    <row r="886" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="886" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B886">
         <v>883</v>
       </c>
     </row>
-    <row r="887" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="887" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B887">
         <v>884</v>
       </c>
     </row>
-    <row r="888" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="888" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B888">
         <v>885</v>
       </c>
     </row>
-    <row r="889" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="889" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B889">
         <v>886</v>
       </c>
     </row>
-    <row r="890" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="890" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B890">
         <v>887</v>
       </c>
     </row>
-    <row r="891" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="891" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B891">
         <v>888</v>
       </c>
     </row>
-    <row r="892" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="892" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B892">
         <v>889</v>
       </c>
     </row>
-    <row r="893" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="893" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B893">
         <v>890</v>
       </c>
     </row>
-    <row r="894" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="894" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B894">
         <v>891</v>
       </c>
     </row>
-    <row r="895" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="895" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B895">
         <v>892</v>
       </c>
     </row>
-    <row r="896" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="896" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B896">
         <v>893</v>
       </c>
     </row>
-    <row r="897" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="897" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B897">
         <v>894</v>
       </c>
     </row>
-    <row r="898" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="898" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B898">
         <v>895</v>
       </c>
     </row>
-    <row r="899" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="899" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B899">
         <v>896</v>
       </c>
     </row>
-    <row r="900" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="900" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B900">
         <v>897</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="901" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="901" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B901">
         <v>898</v>
       </c>
@@ -5755,287 +5755,287 @@
         <v>25</v>
       </c>
     </row>
-    <row r="902" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="902" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B902">
         <v>899</v>
       </c>
     </row>
-    <row r="903" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="903" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B903">
         <v>900</v>
       </c>
     </row>
-    <row r="904" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="904" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B904">
         <v>901</v>
       </c>
     </row>
-    <row r="905" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="905" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B905">
         <v>902</v>
       </c>
     </row>
-    <row r="906" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="906" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B906">
         <v>903</v>
       </c>
     </row>
-    <row r="907" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="907" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B907">
         <v>904</v>
       </c>
     </row>
-    <row r="908" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="908" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B908">
         <v>905</v>
       </c>
     </row>
-    <row r="909" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="909" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B909">
         <v>906</v>
       </c>
     </row>
-    <row r="910" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="910" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B910">
         <v>907</v>
       </c>
     </row>
-    <row r="911" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="911" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B911">
         <v>908</v>
       </c>
     </row>
-    <row r="912" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="912" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B912">
         <v>909</v>
       </c>
     </row>
-    <row r="913" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="913" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B913">
         <v>910</v>
       </c>
     </row>
-    <row r="914" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="914" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B914">
         <v>911</v>
       </c>
     </row>
-    <row r="915" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="915" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B915">
         <v>912</v>
       </c>
     </row>
-    <row r="916" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="916" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B916">
         <v>913</v>
       </c>
     </row>
-    <row r="917" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="917" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B917">
         <v>914</v>
       </c>
     </row>
-    <row r="918" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="918" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B918">
         <v>915</v>
       </c>
     </row>
-    <row r="919" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="919" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B919">
         <v>916</v>
       </c>
     </row>
-    <row r="920" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="920" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B920">
         <v>917</v>
       </c>
     </row>
-    <row r="921" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="921" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B921">
         <v>918</v>
       </c>
     </row>
-    <row r="922" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="922" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B922">
         <v>919</v>
       </c>
     </row>
-    <row r="923" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="923" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B923">
         <v>920</v>
       </c>
     </row>
-    <row r="924" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="924" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B924">
         <v>921</v>
       </c>
     </row>
-    <row r="925" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="925" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B925">
         <v>922</v>
       </c>
     </row>
-    <row r="926" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="926" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B926">
         <v>923</v>
       </c>
     </row>
-    <row r="927" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="927" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B927">
         <v>924</v>
       </c>
     </row>
-    <row r="928" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="928" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B928">
         <v>925</v>
       </c>
     </row>
-    <row r="929" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="929" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B929">
         <v>926</v>
       </c>
     </row>
-    <row r="930" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="930" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B930">
         <v>927</v>
       </c>
     </row>
-    <row r="931" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="931" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B931">
         <v>928</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="932" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B932">
         <v>929</v>
       </c>
     </row>
-    <row r="933" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="933" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B933">
         <v>930</v>
       </c>
     </row>
-    <row r="934" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="934" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B934">
         <v>931</v>
       </c>
     </row>
-    <row r="935" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="935" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B935">
         <v>932</v>
       </c>
     </row>
-    <row r="936" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="936" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B936">
         <v>933</v>
       </c>
     </row>
-    <row r="937" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="937" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B937">
         <v>934</v>
       </c>
     </row>
-    <row r="938" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="938" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B938">
         <v>935</v>
       </c>
     </row>
-    <row r="939" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="939" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B939">
         <v>936</v>
       </c>
     </row>
-    <row r="940" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="940" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B940">
         <v>937</v>
       </c>
     </row>
-    <row r="941" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="941" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B941">
         <v>938</v>
       </c>
     </row>
-    <row r="942" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="942" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B942">
         <v>939</v>
       </c>
     </row>
-    <row r="943" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="943" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B943">
         <v>940</v>
       </c>
     </row>
-    <row r="944" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="944" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B944">
         <v>941</v>
       </c>
     </row>
-    <row r="945" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="945" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B945">
         <v>942</v>
       </c>
     </row>
-    <row r="946" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="946" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B946">
         <v>943</v>
       </c>
     </row>
-    <row r="947" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="947" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B947">
         <v>944</v>
       </c>
     </row>
-    <row r="948" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="948" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B948">
         <v>945</v>
       </c>
     </row>
-    <row r="949" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="949" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B949">
         <v>946</v>
       </c>
     </row>
-    <row r="950" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="950" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B950">
         <v>947</v>
       </c>
     </row>
-    <row r="951" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="951" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B951">
         <v>948</v>
       </c>
     </row>
-    <row r="952" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="952" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B952">
         <v>949</v>
       </c>
     </row>
-    <row r="953" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="953" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B953">
         <v>950</v>
       </c>
     </row>
-    <row r="954" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="954" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B954">
         <v>951</v>
       </c>
     </row>
-    <row r="955" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="955" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B955">
         <v>952</v>
       </c>
     </row>
-    <row r="956" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="956" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B956">
         <v>953</v>
       </c>
     </row>
-    <row r="957" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="957" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B957">
         <v>954</v>
       </c>
     </row>
-    <row r="958" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="958" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B958">
         <v>955</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="959" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="959" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B959">
         <v>956</v>
       </c>
@@ -6051,267 +6051,267 @@
         <v>27</v>
       </c>
     </row>
-    <row r="960" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="960" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B960">
         <v>957</v>
       </c>
     </row>
-    <row r="961" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="961" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B961">
         <v>958</v>
       </c>
     </row>
-    <row r="962" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="962" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B962">
         <v>959</v>
       </c>
     </row>
-    <row r="963" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="963" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B963">
         <v>960</v>
       </c>
     </row>
-    <row r="964" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="964" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B964">
         <v>961</v>
       </c>
     </row>
-    <row r="965" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="965" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B965">
         <v>962</v>
       </c>
     </row>
-    <row r="966" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="966" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B966">
         <v>963</v>
       </c>
     </row>
-    <row r="967" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="967" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B967">
         <v>964</v>
       </c>
     </row>
-    <row r="968" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="968" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B968">
         <v>965</v>
       </c>
     </row>
-    <row r="969" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="969" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B969">
         <v>966</v>
       </c>
     </row>
-    <row r="970" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="970" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B970">
         <v>967</v>
       </c>
     </row>
-    <row r="971" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="971" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B971">
         <v>968</v>
       </c>
     </row>
-    <row r="972" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="972" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B972">
         <v>969</v>
       </c>
     </row>
-    <row r="973" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="973" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B973">
         <v>970</v>
       </c>
     </row>
-    <row r="974" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="974" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B974">
         <v>971</v>
       </c>
     </row>
-    <row r="975" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="975" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B975">
         <v>972</v>
       </c>
     </row>
-    <row r="976" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="976" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B976">
         <v>973</v>
       </c>
     </row>
-    <row r="977" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="977" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B977">
         <v>974</v>
       </c>
     </row>
-    <row r="978" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="978" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B978">
         <v>975</v>
       </c>
     </row>
-    <row r="979" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="979" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B979">
         <v>976</v>
       </c>
     </row>
-    <row r="980" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="980" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B980">
         <v>977</v>
       </c>
     </row>
-    <row r="981" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="981" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B981">
         <v>978</v>
       </c>
     </row>
-    <row r="982" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="982" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B982">
         <v>979</v>
       </c>
     </row>
-    <row r="983" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="983" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B983">
         <v>980</v>
       </c>
     </row>
-    <row r="984" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="984" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B984">
         <v>981</v>
       </c>
     </row>
-    <row r="985" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="985" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B985">
         <v>982</v>
       </c>
     </row>
-    <row r="986" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="986" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B986">
         <v>983</v>
       </c>
     </row>
-    <row r="987" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="987" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B987">
         <v>984</v>
       </c>
     </row>
-    <row r="988" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="988" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B988">
         <v>985</v>
       </c>
     </row>
-    <row r="989" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="989" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B989">
         <v>986</v>
       </c>
     </row>
-    <row r="990" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="990" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B990">
         <v>987</v>
       </c>
     </row>
-    <row r="991" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="991" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B991">
         <v>988</v>
       </c>
     </row>
-    <row r="992" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="992" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B992">
         <v>989</v>
       </c>
     </row>
-    <row r="993" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="993" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B993">
         <v>990</v>
       </c>
     </row>
-    <row r="994" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="994" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B994">
         <v>991</v>
       </c>
     </row>
-    <row r="995" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="995" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B995">
         <v>992</v>
       </c>
     </row>
-    <row r="996" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="996" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B996">
         <v>993</v>
       </c>
     </row>
-    <row r="997" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="997" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B997">
         <v>994</v>
       </c>
     </row>
-    <row r="998" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="998" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B998">
         <v>995</v>
       </c>
     </row>
-    <row r="999" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="999" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B999">
         <v>996</v>
       </c>
     </row>
-    <row r="1000" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1000" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1000">
         <v>997</v>
       </c>
     </row>
-    <row r="1001" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1001" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1001">
         <v>998</v>
       </c>
     </row>
-    <row r="1002" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1002" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1002">
         <v>999</v>
       </c>
     </row>
-    <row r="1003" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1003" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1003">
         <v>1000</v>
       </c>
     </row>
-    <row r="1004" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1004" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1004">
         <v>1001</v>
       </c>
     </row>
-    <row r="1005" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1005" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1005">
         <v>1002</v>
       </c>
     </row>
-    <row r="1006" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1006" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1006">
         <v>1003</v>
       </c>
     </row>
-    <row r="1007" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1007" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1007">
         <v>1004</v>
       </c>
     </row>
-    <row r="1008" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1008" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1008">
         <v>1005</v>
       </c>
     </row>
-    <row r="1009" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1009" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1009">
         <v>1006</v>
       </c>
     </row>
-    <row r="1010" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1010" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1010">
         <v>1007</v>
       </c>
     </row>
-    <row r="1011" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1011" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1011">
         <v>1008</v>
       </c>
     </row>
-    <row r="1012" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1012" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1012">
         <v>1009</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1013" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1013" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1013">
         <v>1010</v>
       </c>
@@ -6327,202 +6327,202 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1014" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1014" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1014">
         <v>1011</v>
       </c>
     </row>
-    <row r="1015" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1015" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1015">
         <v>1012</v>
       </c>
     </row>
-    <row r="1016" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1016" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1016">
         <v>1013</v>
       </c>
     </row>
-    <row r="1017" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1017" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1017">
         <v>1014</v>
       </c>
     </row>
-    <row r="1018" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1018" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1018">
         <v>1015</v>
       </c>
     </row>
-    <row r="1019" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1019" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1019">
         <v>1016</v>
       </c>
     </row>
-    <row r="1020" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1020" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1020">
         <v>1017</v>
       </c>
     </row>
-    <row r="1021" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1021" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1021">
         <v>1018</v>
       </c>
     </row>
-    <row r="1022" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1022" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1022">
         <v>1019</v>
       </c>
     </row>
-    <row r="1023" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1023" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1023">
         <v>1020</v>
       </c>
     </row>
-    <row r="1024" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1024" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1024">
         <v>1021</v>
       </c>
     </row>
-    <row r="1025" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1025" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1025">
         <v>1022</v>
       </c>
     </row>
-    <row r="1026" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1026" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1026">
         <v>1023</v>
       </c>
     </row>
-    <row r="1027" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1027" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1027">
         <v>1024</v>
       </c>
     </row>
-    <row r="1028" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1028" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1028">
         <v>1025</v>
       </c>
     </row>
-    <row r="1029" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1029" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1029">
         <v>1026</v>
       </c>
     </row>
-    <row r="1030" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1030" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1030">
         <v>1027</v>
       </c>
     </row>
-    <row r="1031" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1031" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1031">
         <v>1028</v>
       </c>
     </row>
-    <row r="1032" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1032" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1032">
         <v>1029</v>
       </c>
     </row>
-    <row r="1033" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1033" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1033">
         <v>1030</v>
       </c>
     </row>
-    <row r="1034" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1034" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1034">
         <v>1031</v>
       </c>
     </row>
-    <row r="1035" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1035" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1035">
         <v>1032</v>
       </c>
     </row>
-    <row r="1036" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1036" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1036">
         <v>1033</v>
       </c>
     </row>
-    <row r="1037" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1037" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1037">
         <v>1034</v>
       </c>
     </row>
-    <row r="1038" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1038" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1038">
         <v>1035</v>
       </c>
     </row>
-    <row r="1039" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1039" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1039">
         <v>1036</v>
       </c>
     </row>
-    <row r="1040" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1040" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1040">
         <v>1037</v>
       </c>
     </row>
-    <row r="1041" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1041" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1041">
         <v>1038</v>
       </c>
     </row>
-    <row r="1042" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1042" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1042">
         <v>1039</v>
       </c>
     </row>
-    <row r="1043" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1043" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1043">
         <v>1040</v>
       </c>
     </row>
-    <row r="1044" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1044" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1044">
         <v>1041</v>
       </c>
     </row>
-    <row r="1045" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1045" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1045">
         <v>1042</v>
       </c>
     </row>
-    <row r="1046" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1046" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1046">
         <v>1043</v>
       </c>
     </row>
-    <row r="1047" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1047" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1047">
         <v>1044</v>
       </c>
     </row>
-    <row r="1048" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1048" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1048">
         <v>1045</v>
       </c>
     </row>
-    <row r="1049" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1049" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1049">
         <v>1046</v>
       </c>
     </row>
-    <row r="1050" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1050" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1050">
         <v>1047</v>
       </c>
     </row>
-    <row r="1051" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1051" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1051">
         <v>1048</v>
       </c>
     </row>
-    <row r="1052" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1052" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1052">
         <v>1049</v>
       </c>
     </row>
-    <row r="1053" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1053" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1053">
         <v>1050</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1054" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1054" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1054">
         <v>1051</v>
       </c>
@@ -6538,192 +6538,192 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1055" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1055" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1055">
         <v>1052</v>
       </c>
     </row>
-    <row r="1056" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1056" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1056">
         <v>1053</v>
       </c>
     </row>
-    <row r="1057" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1057" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1057">
         <v>1054</v>
       </c>
     </row>
-    <row r="1058" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1058" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1058">
         <v>1055</v>
       </c>
     </row>
-    <row r="1059" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1059" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1059">
         <v>1056</v>
       </c>
     </row>
-    <row r="1060" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1060" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1060">
         <v>1057</v>
       </c>
     </row>
-    <row r="1061" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1061" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1061">
         <v>1058</v>
       </c>
     </row>
-    <row r="1062" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1062" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1062">
         <v>1059</v>
       </c>
     </row>
-    <row r="1063" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1063" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1063">
         <v>1060</v>
       </c>
     </row>
-    <row r="1064" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1064" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1064">
         <v>1061</v>
       </c>
     </row>
-    <row r="1065" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1065" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1065">
         <v>1062</v>
       </c>
     </row>
-    <row r="1066" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1066" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1066">
         <v>1063</v>
       </c>
     </row>
-    <row r="1067" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1067" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1067">
         <v>1064</v>
       </c>
     </row>
-    <row r="1068" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1068" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1068">
         <v>1065</v>
       </c>
     </row>
-    <row r="1069" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1069" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1069">
         <v>1066</v>
       </c>
     </row>
-    <row r="1070" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1070" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1070">
         <v>1067</v>
       </c>
     </row>
-    <row r="1071" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1071" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1071">
         <v>1068</v>
       </c>
     </row>
-    <row r="1072" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1072" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1072">
         <v>1069</v>
       </c>
     </row>
-    <row r="1073" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1073" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1073">
         <v>1070</v>
       </c>
     </row>
-    <row r="1074" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1074" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1074">
         <v>1071</v>
       </c>
     </row>
-    <row r="1075" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1075" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1075">
         <v>1072</v>
       </c>
     </row>
-    <row r="1076" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1076" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1076">
         <v>1073</v>
       </c>
     </row>
-    <row r="1077" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1077" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1077">
         <v>1074</v>
       </c>
     </row>
-    <row r="1078" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1078" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1078">
         <v>1075</v>
       </c>
     </row>
-    <row r="1079" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1079" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1079">
         <v>1076</v>
       </c>
     </row>
-    <row r="1080" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1080" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1080">
         <v>1077</v>
       </c>
     </row>
-    <row r="1081" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1081" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1081">
         <v>1078</v>
       </c>
     </row>
-    <row r="1082" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1082" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1082">
         <v>1079</v>
       </c>
     </row>
-    <row r="1083" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1083" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1083">
         <v>1080</v>
       </c>
     </row>
-    <row r="1084" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1084" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1084">
         <v>1081</v>
       </c>
     </row>
-    <row r="1085" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1085" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1085">
         <v>1082</v>
       </c>
     </row>
-    <row r="1086" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1086" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1086">
         <v>1083</v>
       </c>
     </row>
-    <row r="1087" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1087" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1087">
         <v>1084</v>
       </c>
     </row>
-    <row r="1088" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1088" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1088">
         <v>1085</v>
       </c>
     </row>
-    <row r="1089" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1089" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1089">
         <v>1086</v>
       </c>
     </row>
-    <row r="1090" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1090" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1090">
         <v>1087</v>
       </c>
     </row>
-    <row r="1091" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1091" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1091">
         <v>1088</v>
       </c>
     </row>
-    <row r="1092" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1092" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1092">
         <v>1089</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1093" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1093" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1093">
         <v>1090</v>
       </c>
@@ -6739,212 +6739,212 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1094" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1094" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1094">
         <v>1091</v>
       </c>
     </row>
-    <row r="1095" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1095" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1095">
         <v>1092</v>
       </c>
     </row>
-    <row r="1096" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1096" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1096">
         <v>1093</v>
       </c>
     </row>
-    <row r="1097" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1097" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1097">
         <v>1094</v>
       </c>
     </row>
-    <row r="1098" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1098" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1098">
         <v>1095</v>
       </c>
     </row>
-    <row r="1099" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1099" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1099">
         <v>1096</v>
       </c>
     </row>
-    <row r="1100" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1100">
         <v>1097</v>
       </c>
     </row>
-    <row r="1101" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1101">
         <v>1098</v>
       </c>
     </row>
-    <row r="1102" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1102">
         <v>1099</v>
       </c>
     </row>
-    <row r="1103" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1103">
         <v>1100</v>
       </c>
     </row>
-    <row r="1104" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1104">
         <v>1101</v>
       </c>
     </row>
-    <row r="1105" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1105">
         <v>1102</v>
       </c>
     </row>
-    <row r="1106" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1106">
         <v>1103</v>
       </c>
     </row>
-    <row r="1107" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1107">
         <v>1104</v>
       </c>
     </row>
-    <row r="1108" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1108">
         <v>1105</v>
       </c>
     </row>
-    <row r="1109" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1109">
         <v>1106</v>
       </c>
     </row>
-    <row r="1110" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1110">
         <v>1107</v>
       </c>
     </row>
-    <row r="1111" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1111">
         <v>1108</v>
       </c>
     </row>
-    <row r="1112" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1112">
         <v>1109</v>
       </c>
     </row>
-    <row r="1113" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1113">
         <v>1110</v>
       </c>
     </row>
-    <row r="1114" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1114">
         <v>1111</v>
       </c>
     </row>
-    <row r="1115" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1115">
         <v>1112</v>
       </c>
     </row>
-    <row r="1116" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1116">
         <v>1113</v>
       </c>
     </row>
-    <row r="1117" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1117">
         <v>1114</v>
       </c>
     </row>
-    <row r="1118" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1118">
         <v>1115</v>
       </c>
     </row>
-    <row r="1119" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1119">
         <v>1116</v>
       </c>
     </row>
-    <row r="1120" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1120">
         <v>1117</v>
       </c>
     </row>
-    <row r="1121" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1121">
         <v>1118</v>
       </c>
     </row>
-    <row r="1122" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1122">
         <v>1119</v>
       </c>
     </row>
-    <row r="1123" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1123">
         <v>1120</v>
       </c>
     </row>
-    <row r="1124" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1124">
         <v>1121</v>
       </c>
     </row>
-    <row r="1125" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1125">
         <v>1122</v>
       </c>
     </row>
-    <row r="1126" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1126">
         <v>1123</v>
       </c>
     </row>
-    <row r="1127" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1127">
         <v>1124</v>
       </c>
     </row>
-    <row r="1128" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1128">
         <v>1125</v>
       </c>
     </row>
-    <row r="1129" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1129">
         <v>1126</v>
       </c>
     </row>
-    <row r="1130" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1130">
         <v>1127</v>
       </c>
     </row>
-    <row r="1131" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1131">
         <v>1128</v>
       </c>
     </row>
-    <row r="1132" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1132">
         <v>1129</v>
       </c>
     </row>
-    <row r="1133" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1133">
         <v>1130</v>
       </c>
     </row>
-    <row r="1134" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1134">
         <v>1131</v>
       </c>
     </row>
-    <row r="1135" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1135">
         <v>1132</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1136" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1136">
         <v>1133</v>
       </c>
@@ -6960,157 +6960,157 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1137" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1137">
         <v>1134</v>
       </c>
     </row>
-    <row r="1138" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1138">
         <v>1135</v>
       </c>
     </row>
-    <row r="1139" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1139">
         <v>1136</v>
       </c>
     </row>
-    <row r="1140" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1140">
         <v>1137</v>
       </c>
     </row>
-    <row r="1141" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1141">
         <v>1138</v>
       </c>
     </row>
-    <row r="1142" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1142">
         <v>1139</v>
       </c>
     </row>
-    <row r="1143" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1143">
         <v>1140</v>
       </c>
     </row>
-    <row r="1144" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1144">
         <v>1141</v>
       </c>
     </row>
-    <row r="1145" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1145">
         <v>1142</v>
       </c>
     </row>
-    <row r="1146" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1146">
         <v>1143</v>
       </c>
     </row>
-    <row r="1147" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1147">
         <v>1144</v>
       </c>
     </row>
-    <row r="1148" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1148">
         <v>1145</v>
       </c>
     </row>
-    <row r="1149" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1149">
         <v>1146</v>
       </c>
     </row>
-    <row r="1150" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1150">
         <v>1147</v>
       </c>
     </row>
-    <row r="1151" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1151">
         <v>1148</v>
       </c>
     </row>
-    <row r="1152" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1152">
         <v>1149</v>
       </c>
     </row>
-    <row r="1153" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1153">
         <v>1150</v>
       </c>
     </row>
-    <row r="1154" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1154">
         <v>1151</v>
       </c>
     </row>
-    <row r="1155" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1155">
         <v>1152</v>
       </c>
     </row>
-    <row r="1156" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1156">
         <v>1153</v>
       </c>
     </row>
-    <row r="1157" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1157">
         <v>1154</v>
       </c>
     </row>
-    <row r="1158" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1158">
         <v>1155</v>
       </c>
     </row>
-    <row r="1159" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1159">
         <v>1156</v>
       </c>
     </row>
-    <row r="1160" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1160">
         <v>1157</v>
       </c>
     </row>
-    <row r="1161" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1161">
         <v>1158</v>
       </c>
     </row>
-    <row r="1162" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1162">
         <v>1159</v>
       </c>
     </row>
-    <row r="1163" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1163">
         <v>1160</v>
       </c>
     </row>
-    <row r="1164" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1164">
         <v>1161</v>
       </c>
     </row>
-    <row r="1165" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1165">
         <v>1162</v>
       </c>
     </row>
-    <row r="1166" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1166">
         <v>1163</v>
       </c>
     </row>
-    <row r="1167" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1167">
         <v>1164</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1168" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1168">
         <v>1165</v>
       </c>
@@ -7126,112 +7126,112 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1169" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1169">
         <v>1166</v>
       </c>
     </row>
-    <row r="1170" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1170">
         <v>1167</v>
       </c>
     </row>
-    <row r="1171" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1171">
         <v>1168</v>
       </c>
     </row>
-    <row r="1172" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1172">
         <v>1169</v>
       </c>
     </row>
-    <row r="1173" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1173">
         <v>1170</v>
       </c>
     </row>
-    <row r="1174" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1174">
         <v>1171</v>
       </c>
     </row>
-    <row r="1175" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1175">
         <v>1172</v>
       </c>
     </row>
-    <row r="1176" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1176">
         <v>1173</v>
       </c>
     </row>
-    <row r="1177" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1177">
         <v>1174</v>
       </c>
     </row>
-    <row r="1178" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1178">
         <v>1175</v>
       </c>
     </row>
-    <row r="1179" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1179">
         <v>1176</v>
       </c>
     </row>
-    <row r="1180" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1180">
         <v>1177</v>
       </c>
     </row>
-    <row r="1181" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1181">
         <v>1178</v>
       </c>
     </row>
-    <row r="1182" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1182">
         <v>1179</v>
       </c>
     </row>
-    <row r="1183" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1183">
         <v>1180</v>
       </c>
     </row>
-    <row r="1184" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1184">
         <v>1181</v>
       </c>
     </row>
-    <row r="1185" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1185">
         <v>1182</v>
       </c>
     </row>
-    <row r="1186" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1186">
         <v>1183</v>
       </c>
     </row>
-    <row r="1187" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1187">
         <v>1184</v>
       </c>
     </row>
-    <row r="1188" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1188">
         <v>1185</v>
       </c>
     </row>
-    <row r="1189" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1189">
         <v>1186</v>
       </c>
     </row>
-    <row r="1190" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1190">
         <v>1187</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1191" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1191">
         <v>1188</v>
       </c>
@@ -7247,162 +7247,162 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1192" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1192">
         <v>1189</v>
       </c>
     </row>
-    <row r="1193" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1193">
         <v>1190</v>
       </c>
     </row>
-    <row r="1194" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1194">
         <v>1191</v>
       </c>
     </row>
-    <row r="1195" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1195">
         <v>1192</v>
       </c>
     </row>
-    <row r="1196" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1196">
         <v>1193</v>
       </c>
     </row>
-    <row r="1197" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1197">
         <v>1194</v>
       </c>
     </row>
-    <row r="1198" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1198">
         <v>1195</v>
       </c>
     </row>
-    <row r="1199" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1199">
         <v>1196</v>
       </c>
     </row>
-    <row r="1200" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1200">
         <v>1197</v>
       </c>
     </row>
-    <row r="1201" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1201">
         <v>1198</v>
       </c>
     </row>
-    <row r="1202" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1202">
         <v>1199</v>
       </c>
     </row>
-    <row r="1203" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1203">
         <v>1200</v>
       </c>
     </row>
-    <row r="1204" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1204">
         <v>1201</v>
       </c>
     </row>
-    <row r="1205" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1205">
         <v>1202</v>
       </c>
     </row>
-    <row r="1206" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1206">
         <v>1203</v>
       </c>
     </row>
-    <row r="1207" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1207">
         <v>1204</v>
       </c>
     </row>
-    <row r="1208" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1208">
         <v>1205</v>
       </c>
     </row>
-    <row r="1209" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1209">
         <v>1206</v>
       </c>
     </row>
-    <row r="1210" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1210">
         <v>1207</v>
       </c>
     </row>
-    <row r="1211" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1211">
         <v>1208</v>
       </c>
     </row>
-    <row r="1212" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1212">
         <v>1209</v>
       </c>
     </row>
-    <row r="1213" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1213">
         <v>1210</v>
       </c>
     </row>
-    <row r="1214" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1214">
         <v>1211</v>
       </c>
     </row>
-    <row r="1215" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1215">
         <v>1212</v>
       </c>
     </row>
-    <row r="1216" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1216">
         <v>1213</v>
       </c>
     </row>
-    <row r="1217" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1217">
         <v>1214</v>
       </c>
     </row>
-    <row r="1218" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1218">
         <v>1215</v>
       </c>
     </row>
-    <row r="1219" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1219">
         <v>1216</v>
       </c>
     </row>
-    <row r="1220" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1220">
         <v>1217</v>
       </c>
     </row>
-    <row r="1221" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1221">
         <v>1218</v>
       </c>
     </row>
-    <row r="1222" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1222">
         <v>1219</v>
       </c>
     </row>
-    <row r="1223" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1223">
         <v>1220</v>
       </c>
@@ -7410,22 +7410,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1224" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1224">
         <v>1221</v>
       </c>
     </row>
-    <row r="1225" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1225" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1225">
         <v>1222</v>
       </c>
     </row>
-    <row r="1226" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1226" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1226">
         <v>1223</v>
       </c>
     </row>
-    <row r="1227" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1227" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1227">
         <v>1224</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1228" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1228">
         <v>1225</v>
       </c>
@@ -7441,87 +7441,87 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1229" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1229">
         <v>1226</v>
       </c>
     </row>
-    <row r="1230" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1230">
         <v>1227</v>
       </c>
     </row>
-    <row r="1231" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1231">
         <v>1228</v>
       </c>
     </row>
-    <row r="1232" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1232" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1232">
         <v>1229</v>
       </c>
     </row>
-    <row r="1233" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1233" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1233">
         <v>1230</v>
       </c>
     </row>
-    <row r="1234" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1234" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1234">
         <v>1231</v>
       </c>
     </row>
-    <row r="1235" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1235" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1235">
         <v>1232</v>
       </c>
     </row>
-    <row r="1236" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1236" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1236">
         <v>1233</v>
       </c>
     </row>
-    <row r="1237" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1237" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1237">
         <v>1234</v>
       </c>
     </row>
-    <row r="1238" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1238" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1238">
         <v>1235</v>
       </c>
     </row>
-    <row r="1239" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1239" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1239">
         <v>1236</v>
       </c>
     </row>
-    <row r="1240" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1240" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1240">
         <v>1237</v>
       </c>
     </row>
-    <row r="1241" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1241" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1241">
         <v>1238</v>
       </c>
     </row>
-    <row r="1242" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1242" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1242">
         <v>1239</v>
       </c>
     </row>
-    <row r="1243" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1243" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1243">
         <v>1240</v>
       </c>
     </row>
-    <row r="1244" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1244" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1244">
         <v>1241</v>
       </c>
     </row>
-    <row r="1245" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1245" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1245">
         <v>1242</v>
       </c>
